--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -513,41 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45295</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="4">
@@ -604,7 +604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45295</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="5">
@@ -652,7 +652,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -666,18 +666,18 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45295</v>
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="6">
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45295</v>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="7">
@@ -753,16 +753,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,24 +770,24 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L7" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8">
@@ -801,16 +801,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,24 +818,24 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9">
@@ -849,41 +849,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10">
@@ -906,18 +906,18 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45295</v>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L10" t="n">
-        <v>864</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11">
@@ -940,21 +940,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,24 +962,24 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L11" t="n">
-        <v>864</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="12">
@@ -988,21 +988,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,24 +1010,24 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" t="n">
-        <v>864</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="13">
@@ -1036,46 +1036,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L13" t="n">
-        <v>864</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="14">
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,24 +1106,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L14" t="n">
-        <v>864</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1631</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1369,12 +1369,12 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,43 +1388,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1622</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1438,11 +1436,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1456,11 +1454,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1474,7 +1472,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1488,11 +1486,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1506,11 +1504,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1524,7 +1522,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1538,15 +1536,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1556,18 +1554,20 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="n">
-        <v>864</v>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,36 +1586,36 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1631</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -1878,24 +1878,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1980,15 +1980,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2135,15 +2135,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2157,16 +2157,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2188,16 +2188,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2219,24 +2219,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2441,19 +2441,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2472,11 +2472,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2534,15 +2534,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2565,19 +2565,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2689,11 +2689,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2783,19 +2783,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2824,14 +2824,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -2860,32 +2860,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>77</v>
+      </c>
+      <c r="H4" t="n">
         <v>51</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>107</v>
-      </c>
-      <c r="H4" t="n">
-        <v>37</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -2903,7 +2903,7 @@
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2912,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -2932,14 +2932,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2948,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,18 +522,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45295</v>
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>875</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3">
@@ -561,16 +561,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +609,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,24 +626,24 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="5">
@@ -657,41 +657,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +700,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45295</v>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="7">
@@ -748,21 +748,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,24 +770,24 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="8">
@@ -796,21 +796,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,24 +818,24 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="9">
@@ -844,46 +844,46 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="10">
@@ -897,41 +897,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +940,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="12">
@@ -988,7 +988,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H12" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="13">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1050,18 +1050,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="14">
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,24 +1106,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1622</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1362,19 +1362,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,41 +1388,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1622</v>
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1440,7 +1442,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1454,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1472,7 +1474,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1490,7 +1492,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1504,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1522,7 +1524,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1540,21 +1542,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1564,10 +1566,8 @@
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L23" t="n">
+        <v>1279</v>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,36 +1586,36 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1254</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
   </sheetData>
@@ -1887,15 +1887,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1909,16 +1909,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1971,24 +1971,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2126,24 +2126,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2228,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2317,11 +2317,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2379,11 +2379,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2410,11 +2410,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2441,19 +2441,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2538,15 +2538,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2565,19 +2565,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2658,11 +2658,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2689,11 +2689,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2795,7 +2795,7 @@
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2804,34 +2804,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -2860,14 +2860,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -2896,14 +2896,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2912,34 +2912,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2948,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3">
@@ -581,7 +581,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45295</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="4">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45295</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5">
@@ -666,15 +666,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6">
@@ -700,21 +700,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -722,24 +722,24 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1279</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7">
@@ -748,46 +748,46 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1279</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8">
@@ -801,41 +801,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1279</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9">
@@ -844,7 +844,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -858,18 +858,18 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45295</v>
@@ -880,10 +880,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="11">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="12">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="13">
@@ -1050,18 +1050,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="14">
@@ -1084,21 +1084,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,24 +1106,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>926</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="15">
@@ -1132,196 +1132,190 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1739</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="19">
@@ -1330,60 +1324,60 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>926</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1392,21 +1386,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1414,26 +1408,24 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1442,21 +1434,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1464,26 +1456,24 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1492,21 +1482,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1514,12 +1504,10 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="23">
@@ -1538,45 +1526,45 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1279</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,45 +1574,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="n">
-        <v>1739</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1624,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,17 +1636,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1670,11 +1660,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1674,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,17 +1686,17 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1720,11 +1710,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1724,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,17 +1736,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1770,50 +1760,794 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>40</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>50</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>56</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>39</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>46</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>46</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>73</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>75</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>MAT_B</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>14</v>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>80</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>80</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>19</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>40</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>17</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>40</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>19</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>40</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>40</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>25</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>40</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>25</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>34</v>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G43" t="n">
         <v>40</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1279</v>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1278</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1926,7 +2660,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1949,7 +2683,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +2691,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1980,15 +2714,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2002,16 +2736,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2019,7 +2753,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,24 +2767,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,24 +2798,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2104,15 +2838,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2166,7 +2900,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2908,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2197,7 +2931,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2939,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2962,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2984,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +3001,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2281,24 +3015,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2308,28 +3042,28 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2339,28 +3073,28 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2370,28 +3104,28 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2405,24 +3139,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,11 +3166,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2445,15 +3179,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,11 +3197,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2476,15 +3210,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2494,11 +3228,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2507,15 +3241,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2534,19 +3268,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2556,7 +3290,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2565,19 +3299,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2587,7 +3321,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2596,11 +3330,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2608,7 +3342,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2618,7 +3352,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2627,11 +3361,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2639,7 +3373,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2649,7 +3383,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2658,11 +3392,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2670,7 +3404,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2680,7 +3414,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2689,21 +3423,486 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>56</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
+        <v>75</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>39</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>39</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>46</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>46</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>73</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>75</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>80</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>80</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>19</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>40</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>17</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>19</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>40</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>25</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>34</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>40</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -2783,19 +3982,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2804,16 +4003,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
@@ -2824,14 +4023,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2840,34 +4039,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2876,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -2927,7 +4126,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2939,7 +4138,7 @@
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2948,34 +4147,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="H6" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2984,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,10 +493,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>leadtime</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>deployed_qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quota</t>
         </is>
@@ -513,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -530,24 +535,27 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>928</v>
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="3">
@@ -561,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,24 +586,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>928</v>
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,24 +637,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>928</v>
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="5">
@@ -657,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -674,24 +688,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>928</v>
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="6">
@@ -705,16 +722,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -722,24 +739,27 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>928</v>
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="7">
@@ -753,16 +773,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,24 +790,27 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>928</v>
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="8">
@@ -796,7 +819,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -810,18 +833,18 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45295</v>
@@ -835,6 +858,9 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
         <v>928</v>
       </c>
     </row>
@@ -849,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -866,24 +892,27 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1278</v>
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="10">
@@ -897,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -914,24 +943,27 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1278</v>
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="11">
@@ -945,16 +977,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
@@ -972,14 +1004,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>3</v>
       </c>
-      <c r="L11" t="n">
-        <v>1278</v>
+      <c r="M11" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="12">
@@ -993,16 +1028,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,24 +1045,27 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1278</v>
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="13">
@@ -1041,24 +1079,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -1068,14 +1106,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="n">
-        <v>1278</v>
+      <c r="M13" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="14">
@@ -1084,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1098,18 +1139,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
@@ -1120,9 +1161,12 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -1146,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1198,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
@@ -1168,9 +1212,12 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -1194,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,10 +1249,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45295</v>
@@ -1216,9 +1263,12 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -1242,7 +1292,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1250,10 +1300,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1264,9 +1314,12 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -1312,9 +1365,12 @@
         </is>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>11</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -1360,9 +1416,12 @@
         </is>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>11</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -1408,9 +1467,12 @@
         </is>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>11</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -1434,18 +1496,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45295</v>
@@ -1456,9 +1518,12 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>16</v>
+      </c>
+      <c r="M21" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -1473,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1490,24 +1555,27 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1278</v>
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="23">
@@ -1555,6 +1623,9 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -1574,11 +1645,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1596,13 +1667,16 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1624,11 +1698,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,13 +1720,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1674,11 +1751,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,13 +1773,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1724,11 +1804,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,13 +1826,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1774,11 +1857,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,13 +1879,16 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1824,11 +1910,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1846,14 +1932,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>928</v>
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="30">
@@ -1872,11 +1961,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1894,13 +1983,16 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1922,11 +2014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1944,13 +2036,16 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1972,11 +2067,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1994,13 +2089,16 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2022,11 +2120,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2044,13 +2142,16 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2072,11 +2173,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2094,13 +2195,16 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2122,11 +2226,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2144,14 +2248,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1278</v>
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="36">
@@ -2199,6 +2306,9 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -2244,9 +2354,12 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2294,9 +2407,12 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2344,9 +2460,12 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2394,9 +2513,12 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2444,9 +2566,12 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2494,9 +2619,12 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2544,9 +2672,12 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -2612,16 +2743,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2629,7 +2760,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2643,16 +2774,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2660,7 +2791,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2674,16 +2805,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2691,7 +2822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2705,16 +2836,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2722,7 +2853,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2736,16 +2867,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2753,7 +2884,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2767,16 +2898,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2784,7 +2915,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2807,15 +2938,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2829,16 +2960,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2846,7 +2977,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2860,16 +2991,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2877,7 +3008,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2891,16 +3022,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2908,7 +3039,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2922,16 +3053,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2939,7 +3070,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2953,24 +3084,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2993,15 +3124,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3024,7 +3155,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3032,7 +3163,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3055,7 +3186,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3063,7 +3194,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3086,7 +3217,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3094,7 +3225,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3210,15 +3341,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3232,16 +3363,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3249,7 +3380,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3299,11 +3430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3330,11 +3461,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3361,11 +3492,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3392,11 +3523,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3423,11 +3554,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3454,11 +3585,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3485,11 +3616,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3516,11 +3647,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3547,11 +3678,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3578,11 +3709,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3609,11 +3740,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3640,11 +3771,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3987,14 +4118,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4003,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
@@ -4023,14 +4154,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4039,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -4059,14 +4190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4075,34 +4206,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4111,16 +4242,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -4131,14 +4262,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4147,34 +4278,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4183,16 +4314,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45295</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
         <v>1278</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45295</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1278</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45295</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
         <v>1278</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45295</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
         <v>1278</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45295</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
         <v>1278</v>
@@ -768,7 +768,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -782,18 +782,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45295</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
         <v>1278</v>
@@ -819,17 +819,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -844,24 +844,24 @@
         <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M8" t="n">
-        <v>928</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="9">
@@ -870,49 +870,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M9" t="n">
-        <v>928</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>928</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>928</v>
@@ -1088,18 +1088,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>928</v>
@@ -1125,21 +1125,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,27 +1147,27 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1278</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15">
@@ -1176,49 +1176,49 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1278</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45295</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1278</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1278</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>1278</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45295</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1278</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45295</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>1278</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45295</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
         <v>1278</v>
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1698,11 +1698,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1804,11 +1804,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1857,11 +1857,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1910,11 +1910,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1278</v>
+        <v>928</v>
       </c>
     </row>
     <row r="30">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2067,11 +2067,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2120,11 +2120,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2173,11 +2173,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2226,11 +2226,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>928</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="36">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2907,15 +2907,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,12 +2929,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2960,24 +2960,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3093,15 +3093,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3115,16 +3115,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,24 +3146,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3430,11 +3430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3461,11 +3461,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3492,11 +3492,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3523,11 +3523,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3585,11 +3585,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3616,11 +3616,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3678,11 +3678,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3771,11 +3771,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4113,19 +4113,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -4190,14 +4190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4233,7 +4233,7 @@
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4242,34 +4242,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H5" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4287,25 +4287,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4314,16 +4314,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,21 +513,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,27 +535,27 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1278</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3">
@@ -564,21 +564,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,27 +586,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1278</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4">
@@ -615,21 +615,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1278</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5">
@@ -666,21 +666,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,27 +688,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1278</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6">
@@ -717,21 +717,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,27 +739,27 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1278</v>
+        <v>944</v>
       </c>
     </row>
     <row r="7">
@@ -768,49 +768,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1278</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8">
@@ -819,49 +819,49 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1278</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9">
@@ -870,49 +870,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1278</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10">
@@ -935,18 +935,18 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45295</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>928</v>
+        <v>944</v>
       </c>
     </row>
     <row r="11">
@@ -986,18 +986,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>928</v>
+        <v>944</v>
       </c>
     </row>
     <row r="12">
@@ -1037,15 +1037,15 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1065,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>928</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1099,24 +1099,24 @@
         <v>43</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>928</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="14">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1150,24 +1150,24 @@
         <v>43</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>928</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="15">
@@ -1181,44 +1181,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>928</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45295</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1278</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1278</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="18">
@@ -1343,18 +1343,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1278</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="19">
@@ -1394,18 +1394,18 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45295</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1278</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="20">
@@ -1445,18 +1445,18 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45295</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1278</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="21">
@@ -1496,18 +1496,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45295</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1278</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="22">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>928</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="23">
@@ -1589,309 +1589,299 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M23" t="n">
-        <v>1776</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="29">
@@ -1900,63 +1890,63 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>928</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1965,21 +1955,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1987,29 +1977,27 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2018,21 +2006,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>50</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2040,29 +2028,27 @@
         </is>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>5</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M31" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2071,21 +2057,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2093,29 +2079,27 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M32" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2124,21 +2108,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2146,29 +2130,27 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M33" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2177,21 +2159,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2199,15 +2181,13 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M34" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="35">
@@ -2216,12 +2196,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2230,21 +2210,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2252,13 +2232,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M35" t="n">
-        <v>1278</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="36">
@@ -2272,16 +2252,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2289,7 +2269,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2299,7 +2279,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2309,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1776</v>
+        <v>944</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2328,50 +2308,48 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M37" t="n">
+        <v>1740</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2381,11 +2359,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2393,21 +2371,21 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2420,11 +2398,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2434,11 +2412,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2446,21 +2424,21 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2473,11 +2451,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2487,11 +2465,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2499,21 +2477,21 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2526,11 +2504,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2540,11 +2518,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2552,21 +2530,21 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2579,11 +2557,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2593,11 +2571,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2605,21 +2583,21 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2636,7 +2614,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2646,11 +2624,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2658,7 +2636,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2668,17 +2646,1432 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>41</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>43</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>43</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>50</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>34</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>50</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>50</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>80</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>100</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>50</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
         <v>7</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1278</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>80</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>80</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>25</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>40</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>7</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>22</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>40</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>7</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>25</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>40</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>7</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>32</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>40</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>7</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>32</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>40</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>7</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>32</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>40</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>7</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>45</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>60</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>7</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>40</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>7</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>40</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>7</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>40</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>7</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +4085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,16 +4136,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +4153,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2774,16 +4167,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +4184,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2805,16 +4198,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +4215,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2836,16 +4229,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +4246,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2867,16 +4260,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +4277,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2898,24 +4291,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,24 +4322,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2960,24 +4353,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3000,15 +4393,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3031,15 +4424,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3062,15 +4455,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3084,12 +4477,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3101,7 +4494,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3115,12 +4508,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3132,7 +4525,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,24 +4539,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3186,7 +4579,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3194,7 +4587,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3217,7 +4610,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3225,7 +4618,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3248,15 +4641,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3279,15 +4672,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,15 +4703,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,15 +4734,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3363,24 +4756,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3394,24 +4787,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3421,28 +4814,28 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3452,28 +4845,28 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3483,28 +4876,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3514,28 +4907,28 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3545,28 +4938,28 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3580,24 +4973,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3607,11 +5000,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3620,15 +5013,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3638,11 +5031,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3651,15 +5044,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -3669,11 +5062,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3682,15 +5075,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3700,11 +5093,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3713,15 +5106,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3731,11 +5124,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3744,15 +5137,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3766,24 +5159,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3806,7 +5199,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3814,7 +5207,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3833,11 +5226,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3845,7 +5238,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3864,11 +5257,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3876,7 +5269,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3895,11 +5288,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3907,7 +5300,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3926,11 +5319,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3938,7 +5331,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3957,11 +5350,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3969,7 +5362,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3979,7 +5372,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45301</v>
+        <v>45295</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3988,19 +5381,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4019,21 +5412,827 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>41</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>50</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>43</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>50</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>43</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>50</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>34</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>80</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>50</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>50</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>50</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>50</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>80</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>80</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>25</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>40</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>22</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>40</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>25</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>40</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>32</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>40</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>32</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>40</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>32</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>40</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>45</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>60</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>40</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>40</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>40</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -4113,19 +6312,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4143,25 +6342,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4170,34 +6369,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>57</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4206,34 +6405,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4242,34 +6441,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4287,13 +6486,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4305,7 +6504,7 @@
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4314,16 +6513,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H7" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="6">
@@ -722,24 +722,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="8">
@@ -824,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="9">
@@ -875,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="10">
@@ -926,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="11">
@@ -977,24 +977,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="12">
@@ -1023,49 +1023,49 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
-        <v>944</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="13">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M13" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="14">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M14" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="15">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M15" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1245,14 +1245,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45295</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M16" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1292,18 +1292,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="18">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1343,18 +1343,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45295</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="20">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1445,18 +1445,18 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45295</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M20" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="21">
@@ -1487,24 +1487,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22">
@@ -1538,24 +1538,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23">
@@ -1589,44 +1589,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="24">
@@ -1635,21 +1635,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,27 +1657,27 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25">
@@ -1686,49 +1686,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26">
@@ -1737,49 +1737,49 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27">
@@ -1788,49 +1788,49 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="28">
@@ -1839,49 +1839,49 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="29">
@@ -1890,49 +1890,49 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="30">
@@ -1941,49 +1941,49 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M30" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="31">
@@ -1997,16 +1997,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2014,27 +2014,27 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1298</v>
+        <v>927</v>
       </c>
     </row>
     <row r="32">
@@ -2043,29 +2043,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2085,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1298</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2108,49 +2108,51 @@
         </is>
       </c>
       <c r="E33" t="n">
+        <v>43</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>4</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="n">
-        <v>1298</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2159,49 +2161,51 @@
         </is>
       </c>
       <c r="E34" t="n">
+        <v>43</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>4</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>4</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="n">
-        <v>1298</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2210,21 +2214,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2232,64 +2236,68 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>36</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1298</v>
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="n">
-        <v>944</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2308,15 +2316,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2326,26 +2334,26 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1740</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2359,15 +2367,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2377,28 +2385,26 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M38" t="n">
+        <v>1272</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2412,15 +2418,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2430,15 +2436,15 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2451,7 +2457,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2465,15 +2471,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2483,15 +2489,15 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2518,15 +2524,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2536,15 +2542,15 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2557,7 +2563,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2571,15 +2577,15 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2589,28 +2595,26 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M42" t="n">
+        <v>1272</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2628,21 +2632,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2650,18 +2654,20 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="n">
-        <v>944</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2679,11 +2685,11 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2693,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2701,18 +2707,20 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="n">
-        <v>944</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2730,11 +2738,11 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2744,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2752,7 +2760,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2765,7 +2773,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2783,11 +2791,11 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2797,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2805,7 +2813,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2818,7 +2826,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2836,21 +2844,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2858,15 +2866,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M47" t="n">
+        <v>927</v>
       </c>
     </row>
     <row r="48">
@@ -2889,11 +2895,11 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2911,13 +2917,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>944</v>
+        <v>927</v>
       </c>
     </row>
     <row r="49">
@@ -2936,15 +2942,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2958,11 +2964,11 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2989,15 +2995,15 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -3011,11 +3017,11 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3042,15 +3048,15 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3064,11 +3070,11 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3081,7 +3087,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3095,15 +3101,15 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -3113,32 +3119,30 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M52" t="n">
+        <v>927</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3148,50 +3152,48 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M53" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3205,21 +3207,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3227,22 +3229,24 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="n">
-        <v>1298</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3256,21 +3260,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3278,22 +3282,24 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M55" t="n">
-        <v>1298</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3307,21 +3313,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3329,7 +3335,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3342,11 +3348,11 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3360,21 +3366,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3382,7 +3388,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3395,11 +3401,11 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3413,21 +3419,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3435,15 +3441,13 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M58" t="n">
+        <v>1272</v>
       </c>
     </row>
     <row r="59">
@@ -3452,7 +3456,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3466,15 +3470,15 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3488,18 +3492,18 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3513,44 +3517,46 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="n">
-        <v>1740</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3568,11 +3574,11 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3582,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3590,485 +3596,12 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>22</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>40</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>7</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>25</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>40</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>7</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>32</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>40</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>7</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>32</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>40</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>7</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>32</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>40</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>7</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>45</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>60</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>7</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>4</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>40</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>7</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>4</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>40</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>7</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>4</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>40</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>7</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4085,7 +3618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4136,16 +3669,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -4153,7 +3686,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4167,16 +3700,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -4184,7 +3717,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4198,16 +3731,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -4215,7 +3748,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4229,16 +3762,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -4246,7 +3779,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4260,24 +3793,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4291,24 +3824,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4322,16 +3855,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4339,7 +3872,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4353,16 +3886,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4370,7 +3903,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -4384,16 +3917,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4401,7 +3934,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4415,24 +3948,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4446,24 +3979,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4486,7 +4019,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4494,7 +4027,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4517,7 +4050,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4525,7 +4058,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4548,7 +4081,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4556,7 +4089,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4583,11 +4116,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4610,15 +4143,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4641,15 +4174,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4672,7 +4205,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4680,7 +4213,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4694,24 +4227,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4725,24 +4258,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4756,24 +4289,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4787,12 +4320,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -4800,11 +4333,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4818,24 +4351,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4849,24 +4382,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4880,24 +4413,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4911,24 +4444,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4942,24 +4475,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4973,24 +4506,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -5004,24 +4537,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -5035,16 +4568,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -5052,7 +4585,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -5062,11 +4595,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5075,15 +4608,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -5093,11 +4626,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5106,15 +4639,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -5124,11 +4657,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5137,15 +4670,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -5155,28 +4688,28 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -5195,15 +4728,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5217,7 +4750,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -5226,15 +4759,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5248,7 +4781,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5257,15 +4790,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5279,7 +4812,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -5288,15 +4821,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5310,7 +4843,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5319,15 +4852,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5341,7 +4874,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5350,15 +4883,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -5372,7 +4905,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5385,15 +4918,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -5403,7 +4936,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5416,11 +4949,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -5434,7 +4967,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5447,11 +4980,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -5465,7 +4998,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5478,11 +5011,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5496,7 +5029,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5509,15 +5042,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5540,11 +5073,11 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5567,15 +5100,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5598,15 +5131,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -5629,15 +5162,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5651,7 +5184,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5660,15 +5193,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5682,7 +5215,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5691,19 +5224,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5713,7 +5246,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5726,15 +5259,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5744,7 +5277,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5757,15 +5290,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5775,7 +5308,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5788,15 +5321,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5806,7 +5339,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5819,15 +5352,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5837,7 +5370,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5850,15 +5383,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5881,15 +5414,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5899,7 +5432,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5908,19 +5441,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5930,7 +5463,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5943,296 +5476,17 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F60" t="n">
         <v>40</v>
       </c>
       <c r="G60" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>22</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>40</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>25</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>40</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>32</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>40</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>32</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>32</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>40</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>45</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>60</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>4</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>40</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>4</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>40</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>4</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>40</v>
-      </c>
-      <c r="G69" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -6317,14 +5571,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -6333,22 +5587,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6360,7 +5614,7 @@
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -6378,25 +5632,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6405,16 +5659,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>83</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -6425,14 +5679,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6441,16 +5695,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -6461,14 +5715,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6477,16 +5731,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -6497,14 +5751,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6513,16 +5767,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="4">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="7">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="8">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="9">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="11">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M11" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="12">
@@ -1028,44 +1028,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1272</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="14">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="15">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="16">
@@ -1241,18 +1241,18 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H16" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45295</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="17">
@@ -1292,18 +1292,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="18">
@@ -1354,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="19">
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45295</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="20">
@@ -1445,18 +1445,18 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45295</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="21">
@@ -1482,49 +1482,49 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M21" t="n">
-        <v>927</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="22">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45295</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="23">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45295</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45295</v>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="25">
@@ -1700,18 +1700,18 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45295</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M25" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="26">
@@ -1751,18 +1751,18 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45295</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M26" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="28">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30">
@@ -1955,18 +1955,18 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45295</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="31">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2006,18 +2006,18 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45295</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M31" t="n">
-        <v>927</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2065,10 +2065,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45295</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M32" t="n">
-        <v>1700</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="33">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45296</v>
@@ -2133,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45297</v>
@@ -2186,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2214,7 +2214,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>45298</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45299</v>
@@ -2292,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="38">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1272</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="39">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2524,46 +2524,44 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1452</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2581,11 +2579,11 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2595,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2608,13 +2606,15 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="n">
-        <v>1272</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2628,11 +2628,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2646,11 +2646,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2667,7 +2667,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2681,11 +2681,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2699,11 +2699,11 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2720,7 +2720,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2752,11 +2752,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2773,7 +2773,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2787,29 +2787,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45299</v>
+        <v>45292</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2818,10 +2818,8 @@
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M46" t="n">
+        <v>1299</v>
       </c>
     </row>
     <row r="47">
@@ -2840,29 +2838,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -2872,12 +2870,12 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>927</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2891,11 +2889,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2909,11 +2907,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -2922,13 +2920,15 @@
       <c r="L48" t="n">
         <v>0</v>
       </c>
-      <c r="M48" t="n">
-        <v>927</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2960,11 +2960,11 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2981,7 +2981,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2995,11 +2995,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3013,11 +3013,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3034,7 +3034,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3048,15 +3048,15 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3066,11 +3066,11 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3079,15 +3079,13 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M51" t="n">
+        <v>1299</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3105,11 +3103,11 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -3119,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3132,17 +3130,19 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="n">
-        <v>927</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3152,48 +3152,50 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="n">
-        <v>1700</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3203,11 +3205,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3215,17 +3217,17 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3242,11 +3244,11 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3256,11 +3258,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3268,17 +3270,17 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3295,11 +3297,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3309,29 +3311,29 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3340,19 +3342,17 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M56" t="n">
+        <v>871</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3362,29 +3362,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3393,19 +3393,17 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M57" t="n">
+        <v>871</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3415,29 +3413,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3446,17 +3444,19 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="n">
-        <v>1272</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3466,11 +3466,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3478,17 +3478,17 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3497,17 +3497,19 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="n">
-        <v>1272</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3517,11 +3519,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3529,17 +3531,17 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3549,59 +3551,6 @@
         <v>0</v>
       </c>
       <c r="M60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>40</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>4</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3618,7 +3567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3864,7 +3813,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3872,7 +3821,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3957,7 +3906,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3965,7 +3914,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3979,24 +3928,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4019,7 +3968,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4027,7 +3976,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4050,7 +3999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4058,7 +4007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4081,7 +4030,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4089,7 +4038,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4112,15 +4061,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4143,15 +4092,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4182,7 +4131,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4213,7 +4162,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4227,24 +4176,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4267,7 +4216,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4275,7 +4224,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4298,7 +4247,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -4329,7 +4278,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4337,7 +4286,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4360,15 +4309,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4391,15 +4340,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4422,7 +4371,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -4430,7 +4379,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4484,7 +4433,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4492,7 +4441,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4515,15 +4464,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4537,16 +4486,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -4554,7 +4503,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4564,7 +4513,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4573,19 +4522,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4595,7 +4544,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4608,7 +4557,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -4616,7 +4565,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4626,7 +4575,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4639,7 +4588,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4647,7 +4596,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4657,7 +4606,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4670,7 +4619,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4678,7 +4627,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4688,7 +4637,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4701,15 +4650,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4732,15 +4681,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4750,7 +4699,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4763,7 +4712,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4771,7 +4720,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4781,7 +4730,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4794,7 +4743,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4802,7 +4751,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4812,7 +4761,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4821,19 +4770,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4843,7 +4792,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4856,11 +4805,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4874,7 +4823,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4887,11 +4836,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4905,7 +4854,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4914,11 +4863,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4936,7 +4885,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4945,11 +4894,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4967,7 +4916,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4976,19 +4925,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4998,7 +4947,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5007,15 +4956,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5029,7 +4978,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5038,19 +4987,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5060,7 +5009,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5069,11 +5018,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5091,7 +5040,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5100,11 +5049,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5122,7 +5071,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5131,15 +5080,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -5153,7 +5102,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5166,11 +5115,11 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5184,7 +5133,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5197,11 +5146,11 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5215,7 +5164,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5224,19 +5173,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5246,7 +5195,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5255,11 +5204,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5267,7 +5216,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5277,7 +5226,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5286,19 +5235,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5308,7 +5257,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5317,19 +5266,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5339,7 +5288,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5348,19 +5297,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5370,7 +5319,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5379,19 +5328,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5401,7 +5350,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5410,11 +5359,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5422,71 +5371,9 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>40</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>40</v>
-      </c>
-      <c r="G60" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5571,14 +5458,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5587,34 +5474,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>166</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5623,34 +5510,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5659,16 +5546,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -5686,7 +5573,7 @@
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5695,34 +5582,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H5" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5731,34 +5618,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5776,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,29 +513,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,27 +586,27 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,27 +688,27 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6">
@@ -722,44 +722,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7">
@@ -773,44 +773,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8">
@@ -824,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,27 +841,27 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9">
@@ -875,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,27 +892,27 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10">
@@ -926,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,27 +943,27 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11">
@@ -977,44 +977,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1037,18 +1037,18 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M12" t="n">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13">
@@ -1099,7 +1099,7 @@
         <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>24</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="15">
@@ -1201,7 +1201,7 @@
         <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="16">
@@ -1252,7 +1252,7 @@
         <v>36</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45295</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1303,7 @@
         <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="18">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="19">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="21">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45295</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M21" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="22">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,27 +1555,27 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="23">
@@ -1589,16 +1589,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,27 +1606,27 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="24">
@@ -1640,16 +1640,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,27 +1657,27 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="25">
@@ -1691,16 +1691,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,27 +1708,27 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="26">
@@ -1742,16 +1742,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1759,27 +1759,27 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="27">
@@ -1793,16 +1793,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="28">
@@ -1844,16 +1844,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="29">
@@ -1895,16 +1895,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="30">
@@ -1946,16 +1946,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1963,27 +1963,27 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="31">
@@ -1997,16 +1997,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2014,27 +2014,27 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H31" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M31" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="32">
@@ -2068,7 +2068,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45295</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1452</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="33">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45296</v>
@@ -2133,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45297</v>
@@ -2186,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>45298</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45299</v>
@@ -2292,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="38">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1299</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="39">
@@ -2539,7 +2539,7 @@
         <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>45295</v>
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M41" t="n">
-        <v>1452</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="42">
@@ -2575,11 +2575,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2590,21 +2590,21 @@
         <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2628,11 +2628,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2643,21 +2643,21 @@
         <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2681,11 +2681,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2696,21 +2696,21 @@
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2749,21 +2749,21 @@
         <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2787,11 +2787,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="47">
@@ -2838,11 +2838,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1299</v>
+        <v>863</v>
       </c>
     </row>
     <row r="48">
@@ -2889,11 +2889,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -2942,11 +2942,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3034,7 +3034,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3052,21 +3052,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3077,15 +3077,17 @@
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1299</v>
+        <v>4</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3099,11 +3101,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3114,21 +3116,21 @@
         <v>50</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K52" t="n">
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3138,7 +3140,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3152,11 +3154,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3167,21 +3169,21 @@
         <v>50</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K53" t="n">
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3191,7 +3193,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3205,11 +3207,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3220,21 +3222,21 @@
         <v>50</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3244,7 +3246,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3258,29 +3260,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45299</v>
+        <v>45292</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3289,10 +3291,8 @@
       <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M55" t="n">
+        <v>1256</v>
       </c>
     </row>
     <row r="56">
@@ -3311,15 +3311,15 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -3329,11 +3329,11 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3343,12 +3343,12 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>871</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3362,11 +3362,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3380,11 +3380,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3393,13 +3393,15 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="M57" t="n">
-        <v>871</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3413,11 +3415,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3431,11 +3433,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3452,7 +3454,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3466,11 +3468,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3484,11 +3486,11 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3498,59 +3500,6 @@
         <v>0</v>
       </c>
       <c r="M59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>5</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>50</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>4</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3567,7 +3516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3618,24 +3567,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3649,16 +3598,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3666,7 +3615,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3680,16 +3629,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3697,7 +3646,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3711,16 +3660,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3728,7 +3677,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3742,24 +3691,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3773,24 +3722,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3804,16 +3753,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3821,7 +3770,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3835,16 +3784,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3852,7 +3801,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3866,16 +3815,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3883,7 +3832,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3897,24 +3846,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3928,24 +3877,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3968,7 +3917,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3976,7 +3925,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3999,15 +3948,15 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>28</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>24</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>forecast</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>22</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4030,7 +3979,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4038,7 +3987,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4061,15 +4010,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4092,15 +4041,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4185,15 +4134,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4207,16 +4156,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4224,7 +4173,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4238,16 +4187,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -4255,7 +4204,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4269,16 +4218,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4286,7 +4235,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4300,24 +4249,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4331,24 +4280,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4362,16 +4311,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -4379,7 +4328,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4393,16 +4342,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4410,7 +4359,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4424,16 +4373,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4441,7 +4390,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4455,24 +4404,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4482,7 +4431,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4491,19 +4440,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4513,7 +4462,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4526,7 +4475,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -4534,7 +4483,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4544,7 +4493,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4557,7 +4506,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -4565,7 +4514,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4575,7 +4524,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4588,7 +4537,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4596,7 +4545,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4606,7 +4555,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4619,15 +4568,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4650,15 +4599,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4668,7 +4617,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4699,7 +4648,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4730,7 +4679,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4739,19 +4688,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4761,7 +4710,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4770,19 +4719,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4792,7 +4741,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4801,11 +4750,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4813,7 +4762,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4823,7 +4772,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4832,11 +4781,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4844,7 +4793,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4854,7 +4803,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4863,7 +4812,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -4875,7 +4824,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4885,7 +4834,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4894,15 +4843,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4925,19 +4874,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4947,7 +4896,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4956,11 +4905,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4978,7 +4927,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4987,11 +4936,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5009,7 +4958,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5018,11 +4967,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5040,7 +4989,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5053,15 +5002,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5071,7 +5020,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5084,15 +5033,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5102,7 +5051,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5111,11 +5060,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5123,7 +5072,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5133,7 +5082,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5142,11 +5091,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5154,7 +5103,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5164,7 +5113,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5173,19 +5122,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5195,7 +5144,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5204,15 +5153,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5226,7 +5175,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5235,15 +5184,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5257,7 +5206,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5266,11 +5215,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -5288,7 +5237,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5297,11 +5246,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -5312,68 +5261,6 @@
         <v>50</v>
       </c>
       <c r="G56" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>5</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>50</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>5</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>50</v>
-      </c>
-      <c r="G58" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5510,16 +5397,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
@@ -5537,7 +5424,7 @@
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5546,16 +5433,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -5573,7 +5460,7 @@
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5582,16 +5469,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="H5" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -5609,7 +5496,7 @@
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5627,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>124</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -5645,7 +5532,7 @@
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5663,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,15 +527,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>45295</v>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>45295</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>45295</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6">
@@ -731,18 +731,18 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45295</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7">
@@ -782,18 +782,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45295</v>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45295</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="9">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45295</v>
@@ -909,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>45295</v>
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="11">
@@ -986,18 +986,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="M11" t="n">
-        <v>863</v>
+        <v>948</v>
       </c>
     </row>
     <row r="12">
@@ -1023,49 +1023,49 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
-        <v>863</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="13">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M13" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="14">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M14" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="15">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M15" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="16">
@@ -1241,18 +1241,18 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45295</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="M16" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="17">
@@ -1292,18 +1292,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="18">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="19">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45295</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="20">
@@ -1445,18 +1445,18 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45295</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M20" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="21">
@@ -1487,44 +1487,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H21" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1256</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22">
@@ -1533,49 +1533,49 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1256</v>
+        <v>948</v>
       </c>
     </row>
     <row r="23">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45295</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="24">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45295</v>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="25">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45295</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="26">
@@ -1751,18 +1751,18 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45295</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="27">
@@ -1802,15 +1802,15 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="28">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="29">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="30">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="31">
@@ -2006,18 +2006,18 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45295</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="32">
@@ -2043,29 +2043,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2085,12 +2085,12 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1675</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2104,46 +2104,44 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M33" t="n">
+        <v>1405</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2161,7 +2159,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2175,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2196,7 +2194,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2214,7 +2212,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2228,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2249,7 +2247,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2267,7 +2265,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2281,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2302,7 +2300,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2320,21 +2318,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2347,8 +2345,10 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="n">
-        <v>1256</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2371,11 +2371,11 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2399,12 +2399,12 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2449,15 +2449,13 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M39" t="n">
+        <v>1236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2475,7 +2473,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2489,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2510,11 +2508,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2524,39 +2522,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>8</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1675</v>
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2575,36 +2575,36 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2636,28 +2636,28 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2681,36 +2681,36 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2734,36 +2734,36 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2787,44 +2787,46 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45292</v>
+        <v>45300</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>863</v>
+        <v>12</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45295</v>
+        <v>45301</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2838,44 +2840,46 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45295</v>
+        <v>45301</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>863</v>
+        <v>12</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2889,46 +2893,44 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1405</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2942,46 +2944,44 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1405</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2999,21 +2999,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3048,11 +3048,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3060,24 +3060,24 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3113,24 +3113,24 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3154,11 +3154,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3166,24 +3166,24 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K53" t="n">
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3207,41 +3207,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45299</v>
+        <v>45292</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>948</v>
       </c>
     </row>
     <row r="55">
@@ -3260,29 +3258,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3292,12 +3290,12 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1256</v>
+        <v>948</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3311,11 +3309,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3329,11 +3327,11 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3342,13 +3340,15 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="n">
-        <v>1256</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3362,11 +3362,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3380,11 +3380,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3401,7 +3401,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3415,11 +3415,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3433,11 +3433,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3454,7 +3454,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3468,29 +3468,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3499,10 +3499,532 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M59" t="n">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>45</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>50</v>
+      </c>
+      <c r="H60" t="n">
+        <v>12</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>12</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>45</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>50</v>
+      </c>
+      <c r="H61" t="n">
+        <v>12</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>4</v>
+      </c>
+      <c r="L61" t="n">
+        <v>12</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>37</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>50</v>
+      </c>
+      <c r="H62" t="n">
+        <v>12</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>12</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>44</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>50</v>
+      </c>
+      <c r="H63" t="n">
+        <v>12</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" t="n">
+        <v>12</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>80</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>100</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>7</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>50</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>50</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>4</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>50</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>50</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>45</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>50</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1236</v>
       </c>
     </row>
   </sheetData>
@@ -3516,7 +4038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3576,15 +4098,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3607,7 +4129,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3615,7 +4137,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3638,7 +4160,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3646,7 +4168,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3669,7 +4191,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3677,7 +4199,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3700,15 +4222,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3731,15 +4253,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3762,7 +4284,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3770,7 +4292,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3793,7 +4315,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3801,7 +4323,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3824,7 +4346,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3832,7 +4354,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3855,15 +4377,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3886,7 +4408,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3894,7 +4416,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3917,7 +4439,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3925,7 +4447,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3948,7 +4470,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3956,7 +4478,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3979,7 +4501,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3987,7 +4509,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4018,7 +4540,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4041,7 +4563,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4049,7 +4571,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4072,7 +4594,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4080,7 +4602,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4103,7 +4625,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4111,7 +4633,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4125,20 +4647,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4156,24 +4678,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4196,7 +4718,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -4204,7 +4726,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4227,7 +4749,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4235,7 +4757,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4258,15 +4780,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4289,15 +4811,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4320,15 +4842,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4351,7 +4873,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4359,7 +4881,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4382,7 +4904,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4390,7 +4912,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4404,24 +4926,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4431,11 +4953,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4444,15 +4966,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4462,11 +4984,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4475,15 +4997,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4493,7 +5015,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4502,19 +5024,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4524,7 +5046,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4537,7 +5059,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4555,7 +5077,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4568,15 +5090,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4586,7 +5108,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4599,11 +5121,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4617,7 +5139,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4630,11 +5152,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4648,7 +5170,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4661,11 +5183,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4688,19 +5210,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4719,19 +5241,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4750,19 +5272,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4772,7 +5294,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4781,19 +5303,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4803,7 +5325,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4812,19 +5334,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4834,7 +5356,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4843,19 +5365,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4865,7 +5387,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4874,19 +5396,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4896,7 +5418,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45296</v>
+        <v>45300</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4905,19 +5427,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4927,7 +5449,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45297</v>
+        <v>45301</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4936,19 +5458,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4958,7 +5480,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4967,19 +5489,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4998,11 +5520,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5010,7 +5532,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5029,11 +5551,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5041,7 +5563,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5060,11 +5582,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5072,7 +5594,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5091,11 +5613,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5103,7 +5625,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5122,11 +5644,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -5153,11 +5675,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5184,11 +5706,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -5215,11 +5737,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -5246,11 +5768,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -5261,6 +5783,347 @@
         <v>50</v>
       </c>
       <c r="G56" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>75</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>45</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>38</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>45</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>38</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>37</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>38</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>44</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>38</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>80</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>100</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>7</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>50</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>7</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>50</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>7</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>50</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>45</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>50</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5340,7 +6203,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5352,7 +6215,7 @@
         <v>45295</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5361,16 +6224,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -5381,14 +6244,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5397,16 +6260,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -5417,14 +6280,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5433,22 +6296,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>122</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5460,7 +6323,7 @@
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5469,34 +6332,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="H5" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>125</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5505,34 +6368,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5550,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240104.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="8">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="9">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45295</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M11" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12">
@@ -1048,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>45295</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13">
@@ -1099,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45295</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45295</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="15">
@@ -1201,7 +1201,7 @@
         <v>22</v>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45295</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="16">
@@ -1252,7 +1252,7 @@
         <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45295</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M16" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="18">
@@ -1354,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="19">
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45295</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="20">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>45295</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M20" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="21">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1609,7 @@
         <v>45</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45295</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="24">
@@ -1660,7 +1660,7 @@
         <v>45</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45295</v>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="25">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45295</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="26">
@@ -1762,7 +1762,7 @@
         <v>44</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45295</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="27">
@@ -1813,7 +1813,7 @@
         <v>80</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45295</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="28">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="29">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="30">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="31">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="32">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2065,10 +2065,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45295</v>
@@ -2082,19 +2082,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M32" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2108,21 +2108,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2135,17 +2135,19 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="n">
-        <v>1405</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2155,33 +2157,33 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2194,11 +2196,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2208,33 +2210,33 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2247,11 +2249,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2261,33 +2263,33 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2300,11 +2302,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2314,33 +2316,33 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2353,11 +2355,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45301</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2367,39 +2369,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45292</v>
+        <v>45301</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="n">
-        <v>1236</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2408,7 +2412,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2418,19 +2422,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2440,26 +2444,26 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1236</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2469,50 +2473,48 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M40" t="n">
+        <v>1128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2522,29 +2524,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2561,7 +2563,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2575,36 +2577,36 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2614,7 +2616,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2628,36 +2630,36 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2667,7 +2669,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2681,36 +2683,36 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H44" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2720,7 +2722,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2734,46 +2736,44 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H45" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45299</v>
+        <v>45292</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>12</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>975</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2787,46 +2787,44 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>12</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>975</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45301</v>
+        <v>45296</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2840,36 +2838,36 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45301</v>
+        <v>45296</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2879,7 +2877,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2893,44 +2891,46 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>25</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1405</v>
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2944,44 +2944,46 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>50</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1405</v>
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2999,21 +3001,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H50" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3024,17 +3026,15 @@
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>25</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>975</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3048,11 +3048,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3060,24 +3060,24 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3113,24 +3113,24 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H52" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K52" t="n">
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3154,11 +3154,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3166,24 +3166,24 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="H53" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K53" t="n">
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3207,29 +3207,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3238,8 +3238,10 @@
       <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="n">
-        <v>948</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3258,29 +3260,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3290,12 +3292,12 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>948</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3309,11 +3311,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3327,11 +3329,11 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3340,15 +3342,13 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M56" t="n">
+        <v>1237</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3362,11 +3362,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3380,11 +3380,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3401,7 +3401,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3415,11 +3415,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3433,11 +3433,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3454,7 +3454,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3468,29 +3468,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3499,17 +3499,19 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="n">
-        <v>948</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3519,50 +3521,48 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H60" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>12</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3584,13 +3584,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>4</v>
       </c>
       <c r="L61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -3611,11 +3611,11 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -3664,11 +3664,11 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3690,13 +3690,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H63" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -3717,11 +3717,11 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3735,21 +3735,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3762,8 +3762,10 @@
       <c r="L64" t="n">
         <v>0</v>
       </c>
-      <c r="M64" t="n">
-        <v>1236</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3772,7 +3774,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3786,21 +3788,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3814,16 +3816,16 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3837,7 +3839,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3845,13 +3847,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3864,19 +3866,17 @@
       <c r="L66" t="n">
         <v>0</v>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M66" t="n">
+        <v>1237</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3898,13 +3898,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3925,11 +3925,11 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3943,7 +3943,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3974,57 +3974,6 @@
         <is>
           <t>inf</t>
         </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>45</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>50</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>4</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1236</v>
       </c>
     </row>
   </sheetData>
@@ -4038,7 +3987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4160,7 +4109,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -4168,7 +4117,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4346,7 +4295,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4354,7 +4303,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -4377,7 +4326,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -4385,7 +4334,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -4416,7 +4365,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4447,7 +4396,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4478,7 +4427,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4509,7 +4458,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4540,7 +4489,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4571,7 +4520,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4602,7 +4551,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4633,7 +4582,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4726,7 +4675,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4757,7 +4706,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4780,7 +4729,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4788,7 +4737,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4819,7 +4768,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4850,7 +4799,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4935,7 +4884,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4943,7 +4892,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4966,7 +4915,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -4974,7 +4923,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4984,28 +4933,28 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -5015,7 +4964,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -5028,15 +4977,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -5046,7 +4995,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -5055,19 +5004,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -5077,7 +5026,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -5086,19 +5035,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -5108,7 +5057,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -5117,19 +5066,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -5139,7 +5088,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -5148,19 +5097,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -5179,19 +5128,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -5210,19 +5159,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -5241,19 +5190,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -5272,19 +5221,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -5294,7 +5243,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5303,19 +5252,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -5325,7 +5274,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5334,19 +5283,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -5356,7 +5305,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5365,19 +5314,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5387,7 +5336,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5396,19 +5345,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5418,7 +5367,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45300</v>
+        <v>45296</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5427,19 +5376,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5449,7 +5398,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45301</v>
+        <v>45297</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5458,19 +5407,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5480,7 +5429,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5489,19 +5438,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5511,7 +5460,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5524,11 +5473,11 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5542,7 +5491,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5551,11 +5500,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5563,7 +5512,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5573,7 +5522,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5582,11 +5531,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5594,7 +5543,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5604,7 +5553,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5613,11 +5562,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5625,7 +5574,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5635,7 +5584,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5644,19 +5593,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5675,19 +5624,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5697,7 +5646,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5706,11 +5655,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -5728,7 +5677,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -5737,11 +5686,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -5759,7 +5708,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5768,11 +5717,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -5790,7 +5739,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5799,19 +5748,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5821,7 +5770,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5830,19 +5779,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5852,7 +5801,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5865,7 +5814,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -5873,7 +5822,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5883,7 +5832,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5896,7 +5845,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -5904,7 +5853,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5914,7 +5863,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5927,7 +5876,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -5935,7 +5884,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5945,7 +5894,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5958,15 +5907,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5989,15 +5938,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -6007,7 +5956,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -6020,7 +5969,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -6028,7 +5977,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -6038,7 +5987,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -6051,7 +6000,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -6059,7 +6008,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -6069,7 +6018,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -6082,7 +6031,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -6090,40 +6039,9 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G66" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>45</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>50</v>
-      </c>
-      <c r="G67" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -6224,16 +6142,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="H2" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -6244,14 +6162,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D3" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -6260,34 +6178,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6299,19 +6217,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6323,7 +6241,7 @@
         <v>45295</v>
       </c>
       <c r="D5" t="n">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6332,16 +6250,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>252</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -6352,14 +6270,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -6368,16 +6286,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="7">
@@ -6388,14 +6306,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6413,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
